--- a/docs/StructureDefinition-patientlist-encounter.xlsx
+++ b/docs/StructureDefinition-patientlist-encounter.xlsx
@@ -958,7 +958,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>44</v>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>44</v>
